--- a/data/historical_estimates/raw/Carretta_2002.xlsx
+++ b/data/historical_estimates/raw/Carretta_2002.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B0340-D48A-284C-A94F-4EE2631CB3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0FCDD-F445-8A44-A588-D38722D62821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="27040" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="520" windowWidth="27040" windowHeight="20180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="2" r:id="rId1"/>
     <sheet name="Table 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Effort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Harbor seal</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>Table 3</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>n_days_tot</t>
   </si>
 </sst>
 </file>
@@ -481,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89566D-766E-B441-8689-91FE8B6CCDCE}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1212,4 +1219,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DEF823-D8B3-4948-93D2-4C1054C17A56}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
+        <v>3388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Carretta_2002.xlsx
+++ b/data/historical_estimates/raw/Carretta_2002.xlsx
@@ -1,41 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0FCDD-F445-8A44-A588-D38722D62821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4BBC21-310A-F045-AF95-7FE20E7AAD7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="520" windowWidth="27040" windowHeight="20180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="520" windowWidth="27040" windowHeight="20180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="2" r:id="rId1"/>
     <sheet name="Table 2" sheetId="1" r:id="rId2"/>
     <sheet name="Effort" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Harbor seal</t>
   </si>
@@ -127,7 +114,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>n_days_tot</t>
+    <t>nvesseldays</t>
+  </si>
+  <si>
+    <t>Methods-Estimation of Total Fishing Effort</t>
   </si>
 </sst>
 </file>
@@ -203,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,9 +233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +320,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,7 +876,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,27 +1247,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DEF823-D8B3-4948-93D2-4C1054C17A56}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
         <v>2001</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>3388</v>
       </c>
     </row>
